--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.1751946666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.5255840000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.07933130249481599</v>
+      </c>
+      <c r="J2">
+        <v>0.079331302494816</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.2841056666666666</v>
-      </c>
-      <c r="H2">
-        <v>0.852317</v>
-      </c>
-      <c r="I2">
-        <v>0.1466007552634951</v>
-      </c>
-      <c r="J2">
-        <v>0.1466007552634951</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.09268433333333333</v>
+        <v>0.04996866666666667</v>
       </c>
       <c r="N2">
-        <v>0.278053</v>
+        <v>0.149906</v>
       </c>
       <c r="O2">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220302</v>
       </c>
       <c r="P2">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220301</v>
       </c>
       <c r="Q2">
-        <v>0.02633214431122222</v>
+        <v>0.008754243900444447</v>
       </c>
       <c r="R2">
-        <v>0.236989298801</v>
+        <v>0.07878819510400001</v>
       </c>
       <c r="S2">
-        <v>0.01525282558531181</v>
+        <v>0.005419162467167782</v>
       </c>
       <c r="T2">
-        <v>0.01525282558531181</v>
+        <v>0.005419162467167782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2841056666666666</v>
+        <v>0.1751946666666667</v>
       </c>
       <c r="H3">
-        <v>0.852317</v>
+        <v>0.5255840000000001</v>
       </c>
       <c r="I3">
-        <v>0.1466007552634951</v>
+        <v>0.07933130249481599</v>
       </c>
       <c r="J3">
-        <v>0.1466007552634951</v>
+        <v>0.079331302494816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.7696</v>
       </c>
       <c r="O3">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518528</v>
       </c>
       <c r="P3">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518527</v>
       </c>
       <c r="Q3">
-        <v>0.1675844625777778</v>
+        <v>0.1033414940444445</v>
       </c>
       <c r="R3">
-        <v>1.5082601632</v>
+        <v>0.9300734464000001</v>
       </c>
       <c r="S3">
-        <v>0.0970728607703128</v>
+        <v>0.06397175497912096</v>
       </c>
       <c r="T3">
-        <v>0.0970728607703128</v>
+        <v>0.06397175497912096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2841056666666666</v>
+        <v>0.1751946666666667</v>
       </c>
       <c r="H4">
-        <v>0.852317</v>
+        <v>0.5255840000000001</v>
       </c>
       <c r="I4">
-        <v>0.1466007552634951</v>
+        <v>0.07933130249481599</v>
       </c>
       <c r="J4">
-        <v>0.1466007552634951</v>
+        <v>0.079331302494816</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2082736666666667</v>
+        <v>0.09165766666666668</v>
       </c>
       <c r="N4">
-        <v>0.6248210000000001</v>
+        <v>0.274973</v>
       </c>
       <c r="O4">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="P4">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="Q4">
-        <v>0.05917172891744445</v>
+        <v>0.01605793435911112</v>
       </c>
       <c r="R4">
-        <v>0.5325455602570001</v>
+        <v>0.144521409232</v>
       </c>
       <c r="S4">
-        <v>0.03427506890787049</v>
+        <v>0.009940385048527255</v>
       </c>
       <c r="T4">
-        <v>0.03427506890787049</v>
+        <v>0.009940385048527255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>2.414583</v>
       </c>
       <c r="I5">
-        <v>0.4153145970881677</v>
+        <v>0.364455566325916</v>
       </c>
       <c r="J5">
-        <v>0.4153145970881677</v>
+        <v>0.3644555663259161</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09268433333333333</v>
+        <v>0.04996866666666667</v>
       </c>
       <c r="N5">
-        <v>0.278053</v>
+        <v>0.149906</v>
       </c>
       <c r="O5">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220302</v>
       </c>
       <c r="P5">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220301</v>
       </c>
       <c r="Q5">
-        <v>0.07459800521099999</v>
+        <v>0.040217831022</v>
       </c>
       <c r="R5">
-        <v>0.6713820468989999</v>
+        <v>0.361960479198</v>
       </c>
       <c r="S5">
-        <v>0.04321069902425852</v>
+        <v>0.0248961489837236</v>
       </c>
       <c r="T5">
-        <v>0.04321069902425852</v>
+        <v>0.0248961489837236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.414583</v>
       </c>
       <c r="I6">
-        <v>0.4153145970881677</v>
+        <v>0.364455566325916</v>
       </c>
       <c r="J6">
-        <v>0.4153145970881677</v>
+        <v>0.3644555663259161</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>1.7696</v>
       </c>
       <c r="O6">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518528</v>
       </c>
       <c r="P6">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518527</v>
       </c>
       <c r="Q6">
         <v>0.4747606751999999</v>
@@ -821,10 +821,10 @@
         <v>4.2728460768</v>
       </c>
       <c r="S6">
-        <v>0.2750038769347135</v>
+        <v>0.2938923408108899</v>
       </c>
       <c r="T6">
-        <v>0.2750038769347135</v>
+        <v>0.29389234081089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>2.414583</v>
       </c>
       <c r="I7">
-        <v>0.4153145970881677</v>
+        <v>0.364455566325916</v>
       </c>
       <c r="J7">
-        <v>0.4153145970881677</v>
+        <v>0.3644555663259161</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2082736666666667</v>
+        <v>0.09165766666666668</v>
       </c>
       <c r="N7">
-        <v>0.6248210000000001</v>
+        <v>0.274973</v>
       </c>
       <c r="O7">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="P7">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="Q7">
-        <v>0.167631351627</v>
+        <v>0.073771681251</v>
       </c>
       <c r="R7">
-        <v>1.508682164643</v>
+        <v>0.663945131259</v>
       </c>
       <c r="S7">
-        <v>0.09710002112919566</v>
+        <v>0.04566707653130248</v>
       </c>
       <c r="T7">
-        <v>0.09710002112919565</v>
+        <v>0.04566707653130248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.572779</v>
+        <v>1.142989</v>
       </c>
       <c r="H8">
-        <v>1.718337</v>
+        <v>3.428967</v>
       </c>
       <c r="I8">
-        <v>0.2955584623997978</v>
+        <v>0.5175660186035755</v>
       </c>
       <c r="J8">
-        <v>0.2955584623997977</v>
+        <v>0.5175660186035757</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09268433333333333</v>
+        <v>0.04996866666666667</v>
       </c>
       <c r="N8">
-        <v>0.278053</v>
+        <v>0.149906</v>
       </c>
       <c r="O8">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220302</v>
       </c>
       <c r="P8">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220301</v>
       </c>
       <c r="Q8">
-        <v>0.05308763976233333</v>
+        <v>0.05711363634466667</v>
       </c>
       <c r="R8">
-        <v>0.477788757861</v>
+        <v>0.514022727102</v>
       </c>
       <c r="S8">
-        <v>0.03075087620895506</v>
+        <v>0.03535520348328128</v>
       </c>
       <c r="T8">
-        <v>0.03075087620895505</v>
+        <v>0.03535520348328128</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.572779</v>
+        <v>1.142989</v>
       </c>
       <c r="H9">
-        <v>1.718337</v>
+        <v>3.428967</v>
       </c>
       <c r="I9">
-        <v>0.2955584623997978</v>
+        <v>0.5175660186035755</v>
       </c>
       <c r="J9">
-        <v>0.2955584623997977</v>
+        <v>0.5175660186035757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>1.7696</v>
       </c>
       <c r="O9">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518528</v>
       </c>
       <c r="P9">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518527</v>
       </c>
       <c r="Q9">
-        <v>0.3378632394666667</v>
+        <v>0.6742111114666667</v>
       </c>
       <c r="R9">
-        <v>3.0407691552</v>
+        <v>6.0679000032</v>
       </c>
       <c r="S9">
-        <v>0.1957063960445198</v>
+        <v>0.4173586653236998</v>
       </c>
       <c r="T9">
-        <v>0.1957063960445198</v>
+        <v>0.4173586653236998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>22</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.142989</v>
+      </c>
+      <c r="H10">
+        <v>3.428967</v>
+      </c>
+      <c r="I10">
+        <v>0.5175660186035755</v>
+      </c>
+      <c r="J10">
+        <v>0.5175660186035757</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.572779</v>
-      </c>
-      <c r="H10">
-        <v>1.718337</v>
-      </c>
-      <c r="I10">
-        <v>0.2955584623997978</v>
-      </c>
-      <c r="J10">
-        <v>0.2955584623997977</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.2082736666666667</v>
+        <v>0.09165766666666668</v>
       </c>
       <c r="N10">
-        <v>0.6248210000000001</v>
+        <v>0.274973</v>
       </c>
       <c r="O10">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="P10">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="Q10">
-        <v>0.1192947825196667</v>
+        <v>0.1047637047656667</v>
       </c>
       <c r="R10">
-        <v>1.073653042677</v>
+        <v>0.9428733428910001</v>
       </c>
       <c r="S10">
-        <v>0.06910119014632286</v>
+        <v>0.06485214979659455</v>
       </c>
       <c r="T10">
-        <v>0.06910119014632285</v>
+        <v>0.06485214979659455</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2762093333333334</v>
+        <v>0.08534799999999999</v>
       </c>
       <c r="H11">
-        <v>0.828628</v>
+        <v>0.256044</v>
       </c>
       <c r="I11">
-        <v>0.1425261852485395</v>
+        <v>0.0386471125756923</v>
       </c>
       <c r="J11">
-        <v>0.1425261852485395</v>
+        <v>0.0386471125756923</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.09268433333333333</v>
+        <v>0.04996866666666667</v>
       </c>
       <c r="N11">
-        <v>0.278053</v>
+        <v>0.149906</v>
       </c>
       <c r="O11">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220302</v>
       </c>
       <c r="P11">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220301</v>
       </c>
       <c r="Q11">
-        <v>0.02560027792044444</v>
+        <v>0.004264725762666666</v>
       </c>
       <c r="R11">
-        <v>0.230402501284</v>
+        <v>0.038382531864</v>
       </c>
       <c r="S11">
-        <v>0.01482889389640915</v>
+        <v>0.002640004328030357</v>
       </c>
       <c r="T11">
-        <v>0.01482889389640915</v>
+        <v>0.002640004328030357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2762093333333334</v>
+        <v>0.08534799999999999</v>
       </c>
       <c r="H12">
-        <v>0.828628</v>
+        <v>0.256044</v>
       </c>
       <c r="I12">
-        <v>0.1425261852485395</v>
+        <v>0.0386471125756923</v>
       </c>
       <c r="J12">
-        <v>0.1425261852485395</v>
+        <v>0.0386471125756923</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>1.7696</v>
       </c>
       <c r="O12">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518528</v>
       </c>
       <c r="P12">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518527</v>
       </c>
       <c r="Q12">
-        <v>0.1629266787555556</v>
+        <v>0.05034394026666666</v>
       </c>
       <c r="R12">
-        <v>1.4663401088</v>
+        <v>0.4530954624</v>
       </c>
       <c r="S12">
-        <v>0.09437485169764624</v>
+        <v>0.03116454083814203</v>
       </c>
       <c r="T12">
-        <v>0.09437485169764624</v>
+        <v>0.03116454083814203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2762093333333334</v>
+        <v>0.08534799999999999</v>
       </c>
       <c r="H13">
-        <v>0.828628</v>
+        <v>0.256044</v>
       </c>
       <c r="I13">
-        <v>0.1425261852485395</v>
+        <v>0.0386471125756923</v>
       </c>
       <c r="J13">
-        <v>0.1425261852485395</v>
+        <v>0.0386471125756923</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2082736666666667</v>
+        <v>0.09165766666666668</v>
       </c>
       <c r="N13">
-        <v>0.6248210000000001</v>
+        <v>0.274973</v>
       </c>
       <c r="O13">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="P13">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="Q13">
-        <v>0.0575271306208889</v>
+        <v>0.007822798534666667</v>
       </c>
       <c r="R13">
-        <v>0.5177441755880001</v>
+        <v>0.070405186812</v>
       </c>
       <c r="S13">
-        <v>0.03332243965448409</v>
+        <v>0.004842567409519909</v>
       </c>
       <c r="T13">
-        <v>0.03332243965448408</v>
+        <v>0.004842567409519909</v>
       </c>
     </row>
   </sheetData>
